--- a/data analysis/Correction 5&6/dataAnalysisOf5&6.xlsx
+++ b/data analysis/Correction 5&6/dataAnalysisOf5&6.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/study/master/19winter/soen6611/Metrics-Correlation-Analysis/data analysis/Correction 5&amp;6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D08A2-F409-2E4E-A40B-35176C5D0702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5A83ED-3AA6-E44A-B4EA-AED1F755C790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="1500" windowWidth="20120" windowHeight="12280" xr2:uid="{E33041DE-B5BD-FB41-8560-4F060210710A}"/>
+    <workbookView xWindow="5280" yWindow="1860" windowWidth="20120" windowHeight="12280" xr2:uid="{E33041DE-B5BD-FB41-8560-4F060210710A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,68 +37,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>change proneness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons Lang 3.0-3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons Lang 3.6-3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons Lang 3.7-3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons codec 1.10-1.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons codec 1.11-1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons codec 1.9-1.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons collections 3.2-4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons collections 4.0-4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons collections 4.1-4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons configuration 2.1-2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons configuration 2.2-2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache commons configuration 2.3-2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jfreechart 0.19-1.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jfreechart 1.0.18-1.0.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BMI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change proneness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang3.0-3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang3.6-3.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang3.7-3.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codec1.10-1.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codec1.11-1.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codec1.9-1.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collections3.2-4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collections4.0-4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collections4.1-4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configuration2.1-2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configuration2.2-2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>configuration2.3-2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jfreechart0.19-1.5.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jfreechart1.0.18-1.0.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,8 +143,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,35 +464,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0A78D-DFDE-D147-8614-347060060810}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.10833</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10.833</v>
       </c>
       <c r="C2">
         <v>788588</v>
@@ -498,10 +502,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.43332999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43.332999999999998</v>
       </c>
       <c r="C3">
         <v>795044</v>
@@ -509,10 +513,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.33968300000000001</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>33.968299999999999</v>
       </c>
       <c r="C4">
         <v>805117</v>
@@ -520,10 +524,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.30555599999999999</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30.555599999999998</v>
       </c>
       <c r="C5">
         <v>163928</v>
@@ -531,10 +535,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.44444400000000001</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44.444400000000002</v>
       </c>
       <c r="C6">
         <v>167571</v>
@@ -542,10 +546,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
       </c>
       <c r="C7">
         <v>141893</v>
@@ -553,10 +557,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.40317500000000001</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40.317500000000003</v>
       </c>
       <c r="C8">
         <v>881736</v>
@@ -564,10 +568,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.38611000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>38.611000000000004</v>
       </c>
       <c r="C9">
         <v>914516</v>
@@ -575,10 +579,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.41666700000000001</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41.666699999999999</v>
       </c>
       <c r="C10">
         <v>943754</v>
@@ -586,10 +590,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.66666999999999998</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66.667000000000002</v>
       </c>
       <c r="C11">
         <v>698588</v>
@@ -597,10 +601,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.15757599999999999</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15.7576</v>
       </c>
       <c r="C12">
         <v>610800</v>
@@ -608,10 +612,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>3.0303E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.0303</v>
       </c>
       <c r="C13">
         <v>722335</v>
@@ -619,10 +623,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>2.5</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>250</v>
       </c>
       <c r="C14">
         <v>691089</v>
@@ -630,10 +634,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.66666999999999998</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66.667000000000002</v>
       </c>
       <c r="C15">
         <v>842107</v>

--- a/data analysis/Correction 5&6/dataAnalysisOf5&6.xlsx
+++ b/data analysis/Correction 5&6/dataAnalysisOf5&6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/study/master/19winter/soen6611/Metrics-Correlation-Analysis/data analysis/Correction 5&amp;6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5A83ED-3AA6-E44A-B4EA-AED1F755C790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE90980C-A5A3-B142-8AEB-DB6E3BB09514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1860" windowWidth="20120" windowHeight="12280" xr2:uid="{E33041DE-B5BD-FB41-8560-4F060210710A}"/>
+    <workbookView xWindow="14900" yWindow="5160" windowWidth="20120" windowHeight="12280" xr2:uid="{E33041DE-B5BD-FB41-8560-4F060210710A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -497,7 +497,7 @@
         <v>10.833</v>
       </c>
       <c r="C2">
-        <v>788588</v>
+        <v>5.9171597633136076E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -508,7 +508,7 @@
         <v>43.332999999999998</v>
       </c>
       <c r="C3">
-        <v>795044</v>
+        <v>2.0833333333333343E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -519,7 +519,7 @@
         <v>33.968299999999999</v>
       </c>
       <c r="C4">
-        <v>805117</v>
+        <v>1.7241379310344838E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -530,7 +530,7 @@
         <v>30.555599999999998</v>
       </c>
       <c r="C5">
-        <v>163928</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -541,7 +541,7 @@
         <v>44.444400000000002</v>
       </c>
       <c r="C6">
-        <v>167571</v>
+        <v>4.1666666666666678E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -552,7 +552,7 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>141893</v>
+        <v>2.5641025641025637E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -563,7 +563,7 @@
         <v>40.317500000000003</v>
       </c>
       <c r="C8">
-        <v>881736</v>
+        <v>1.7730496453900704E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -574,7 +574,7 @@
         <v>38.611000000000004</v>
       </c>
       <c r="C9">
-        <v>914516</v>
+        <v>5.0761421319796924E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -585,7 +585,7 @@
         <v>41.666699999999999</v>
       </c>
       <c r="C10">
-        <v>943754</v>
+        <v>3.0303030303030294E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -596,7 +596,7 @@
         <v>66.667000000000002</v>
       </c>
       <c r="C11">
-        <v>698588</v>
+        <v>9.9009900990099167E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -607,7 +607,7 @@
         <v>15.7576</v>
       </c>
       <c r="C12">
-        <v>610800</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -618,7 +618,7 @@
         <v>3.0303</v>
       </c>
       <c r="C13">
-        <v>722335</v>
+        <v>5.2356020942408415E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -629,7 +629,7 @@
         <v>250</v>
       </c>
       <c r="C14">
-        <v>691089</v>
+        <v>4.5454545454545449E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -640,7 +640,7 @@
         <v>66.667000000000002</v>
       </c>
       <c r="C15">
-        <v>842107</v>
+        <v>7.7041602465331151E-4</v>
       </c>
     </row>
   </sheetData>
